--- a/results/MVSE/freebase/MVSE_freebase<l01><WL>56.13.xlsx
+++ b/results/MVSE/freebase/MVSE_freebase<l01><WL>56.13.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -720,20 +720,20 @@
         <v>2</v>
       </c>
       <c r="N4" t="n">
-        <v>0.37</v>
+        <v>0.34</v>
       </c>
       <c r="O4" t="n">
-        <v>55.33</v>
+        <v>55.29</v>
       </c>
       <c r="P4" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.52</v>
+        <v>0.63</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-23_22_05', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-04_26_46', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S4" t="n">
@@ -742,7 +742,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -754,11 +754,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -773,7 +769,7 @@
         <v>128</v>
       </c>
       <c r="H5" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="I5" t="n">
         <v>50</v>
@@ -793,23 +789,96 @@
         <v>2</v>
       </c>
       <c r="N5" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="O5" t="n">
+        <v>55.19</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-04_47_45', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S5" t="n">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>freebase</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>128</v>
+      </c>
+      <c r="H6" t="n">
+        <v>200</v>
+      </c>
+      <c r="I6" t="n">
+        <v>50</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="n">
         <v>0.16</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O6" t="n">
         <v>55.09</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P6" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q6" t="n">
         <v>0.63</v>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="R6" t="inlineStr">
         <is>
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-21_11_56', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S5" t="n">
+      <c r="S6" t="n">
         <v>4096</v>
       </c>
     </row>

--- a/results/MVSE/freebase/MVSE_freebase<l01><WL>56.13.xlsx
+++ b/results/MVSE/freebase/MVSE_freebase<l01><WL>56.13.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -742,7 +742,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
         <v>128</v>
       </c>
       <c r="H5" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="I5" t="n">
         <v>50</v>
@@ -789,20 +789,20 @@
         <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>0.36</v>
+        <v>0.19</v>
       </c>
       <c r="O5" t="n">
-        <v>55.19</v>
+        <v>55.22</v>
       </c>
       <c r="P5" t="n">
-        <v>0.14</v>
+        <v>0.06</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.59</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-04_47_45', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-01_01_30', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S5" t="n">
@@ -811,7 +811,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -823,11 +823,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -842,7 +838,7 @@
         <v>128</v>
       </c>
       <c r="H6" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="I6" t="n">
         <v>50</v>
@@ -862,23 +858,96 @@
         <v>2</v>
       </c>
       <c r="N6" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="O6" t="n">
+        <v>55.19</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-04_47_45', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S6" t="n">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>freebase</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>128</v>
+      </c>
+      <c r="H7" t="n">
+        <v>200</v>
+      </c>
+      <c r="I7" t="n">
+        <v>50</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="n">
         <v>0.16</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O7" t="n">
         <v>55.09</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P7" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q7" t="n">
         <v>0.63</v>
       </c>
-      <c r="R6" t="inlineStr">
+      <c r="R7" t="inlineStr">
         <is>
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-21_11_56', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S6" t="n">
+      <c r="S7" t="n">
         <v>4096</v>
       </c>
     </row>

--- a/results/MVSE/freebase/MVSE_freebase<l01><WL>56.13.xlsx
+++ b/results/MVSE/freebase/MVSE_freebase<l01><WL>56.13.xlsx
@@ -596,7 +596,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-00_34_42', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr"/>
+      <c r="S2" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -646,7 +648,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>2</v>
+      </c>
       <c r="M3" t="n">
         <v>2</v>
       </c>
@@ -685,7 +689,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -715,7 +723,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>2</v>
+      </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
@@ -754,7 +764,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -784,7 +798,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>2</v>
+      </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
@@ -823,7 +839,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -853,7 +873,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>2</v>
+      </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
@@ -926,7 +948,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>2</v>
+      </c>
       <c r="M7" t="n">
         <v>2</v>
       </c>
